--- a/JBUH/QC/검사코드목록.xlsx
+++ b/JBUH/QC/검사코드목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\JBUH\QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2EA7A-2F21-4748-A851-75D620F542CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E75F5-1B08-42F0-A472-C40D277049F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{B12DA6D0-B52F-44D2-9B33-EC9D8E5BA612}"/>
   </bookViews>
@@ -1440,7 +1440,18 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1770,11 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3B9EC4-9C72-4C4D-B79F-1B7EDD303681}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1951,7 +1961,7 @@
         <v>13710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>271</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>271</v>
       </c>
@@ -2013,7 +2023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>271</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>271</v>
       </c>
@@ -2073,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
@@ -2103,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>271</v>
       </c>
@@ -2133,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -2163,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>271</v>
       </c>
@@ -2193,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>271</v>
       </c>
@@ -2287,7 +2297,7 @@
         <v>468972</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>251</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>251</v>
       </c>
@@ -2509,7 +2519,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>426</v>
       </c>
@@ -2605,7 +2615,7 @@
         <v>470542</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>241</v>
       </c>
@@ -2637,7 +2647,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>241</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>291</v>
       </c>
@@ -2859,7 +2869,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>291</v>
       </c>
@@ -2891,7 +2901,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>291</v>
       </c>
@@ -2923,7 +2933,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>291</v>
       </c>
@@ -2955,7 +2965,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>291</v>
       </c>
@@ -3051,7 +3061,7 @@
         <v>155401</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>374</v>
       </c>
@@ -3305,7 +3315,7 @@
         <v>7881</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>312</v>
       </c>
@@ -3337,7 +3347,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>312</v>
       </c>
@@ -3369,7 +3379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>312</v>
       </c>
@@ -3401,7 +3411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>312</v>
       </c>
@@ -3433,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>312</v>
       </c>
@@ -3465,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>312</v>
       </c>
@@ -3497,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>312</v>
       </c>
@@ -3529,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>312</v>
       </c>
@@ -3653,7 +3663,7 @@
         <v>9987</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>347</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>347</v>
       </c>
@@ -3749,7 +3759,7 @@
         <v>3042757</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>341</v>
       </c>
@@ -3845,7 +3855,7 @@
         <v>719063</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>74</v>
       </c>
@@ -3875,7 +3885,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>74</v>
       </c>
@@ -3939,7 +3949,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
@@ -3969,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -4097,7 +4107,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -4129,7 +4139,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -4161,7 +4171,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -4193,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -4225,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -4571,7 +4581,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
@@ -4601,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>174</v>
       </c>
@@ -4697,7 +4707,7 @@
         <v>6151349</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>183</v>
       </c>
@@ -4727,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>183</v>
       </c>
@@ -5175,7 +5185,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>411</v>
       </c>
@@ -5335,7 +5345,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>419</v>
       </c>
@@ -5697,7 +5707,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>379</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>379</v>
       </c>
@@ -5885,7 +5895,7 @@
         <v>24153</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>108</v>
       </c>
@@ -5917,7 +5927,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>108</v>
       </c>
@@ -5949,7 +5959,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>108</v>
       </c>
@@ -5981,7 +5991,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>108</v>
       </c>
@@ -6013,7 +6023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>108</v>
       </c>
@@ -6045,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>108</v>
       </c>
@@ -6077,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>108</v>
       </c>
@@ -6109,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>108</v>
       </c>
@@ -6141,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>108</v>
       </c>
@@ -6173,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>108</v>
       </c>
@@ -6205,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>108</v>
       </c>
@@ -6237,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>108</v>
       </c>
@@ -6267,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>108</v>
       </c>
@@ -6555,7 +6565,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>228</v>
       </c>
@@ -6587,7 +6597,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>228</v>
       </c>
@@ -6875,7 +6885,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
@@ -6907,7 +6917,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
@@ -6937,7 +6947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v>4708545</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>265</v>
       </c>
@@ -7223,7 +7233,7 @@
         <v>10275</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>360</v>
       </c>
@@ -7725,7 +7735,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>71</v>
       </c>
@@ -7757,7 +7767,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>71</v>
       </c>
@@ -7789,7 +7799,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>71</v>
       </c>
@@ -7819,7 +7829,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>71</v>
       </c>
@@ -7849,7 +7859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>71</v>
       </c>
@@ -7881,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>71</v>
       </c>
@@ -7911,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>71</v>
       </c>
@@ -7941,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>71</v>
       </c>
@@ -7971,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>71</v>
       </c>
@@ -8001,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>71</v>
       </c>
@@ -8031,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>71</v>
       </c>
@@ -8061,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>71</v>
       </c>
@@ -8093,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>71</v>
       </c>
@@ -8125,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>71</v>
       </c>
@@ -8158,18 +8168,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J202" xr:uid="{AA3B9EC4-9C72-4C4D-B79F-1B7EDD303681}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J203">
-    <sortCondition ref="A2:A203"/>
-    <sortCondition descending="1" ref="J2:J203"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J202">
+    <sortCondition ref="A2:A202"/>
+    <sortCondition descending="1" ref="J2:J202"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JBUH/QC/검사코드목록.xlsx
+++ b/JBUH/QC/검사코드목록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\JBUH\QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E75F5-1B08-42F0-A472-C40D277049F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97969C67-09A9-4A0D-A296-0282812528CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{B12DA6D0-B52F-44D2-9B33-EC9D8E5BA612}"/>
+    <workbookView xWindow="4200" yWindow="0" windowWidth="23970" windowHeight="21000" xr2:uid="{B12DA6D0-B52F-44D2-9B33-EC9D8E5BA612}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="454">
   <si>
     <t>ORDCODE</t>
   </si>
@@ -727,9 +727,6 @@
     <t>L91041</t>
   </si>
   <si>
-    <t>L920110</t>
-  </si>
-  <si>
     <t>건수(단순 참고용)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -826,9 +823,6 @@
   </si>
   <si>
     <t>Total bilirubin</t>
-  </si>
-  <si>
-    <t>L3018</t>
   </si>
   <si>
     <t>mg/dL</t>
@@ -1342,6 +1336,91 @@
 (1: 가능성 높음
  0: 가능성 낮음)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L920110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3036</t>
+  </si>
+  <si>
+    <t>LD (Lactate dehydrogenase)</t>
+  </si>
+  <si>
+    <t>L303601</t>
+  </si>
+  <si>
+    <t>LD, other fluid(위탁)</t>
+  </si>
+  <si>
+    <t>L3154</t>
+  </si>
+  <si>
+    <t>LD. CSF</t>
+  </si>
+  <si>
+    <t>L3164</t>
+  </si>
+  <si>
+    <t>LD. pleural fluid</t>
+  </si>
+  <si>
+    <t>L3174</t>
+  </si>
+  <si>
+    <t>LD. ascitic fluid</t>
+  </si>
+  <si>
+    <t>L318101</t>
+  </si>
+  <si>
+    <t>LD, other fluid (위탁)</t>
+  </si>
+  <si>
+    <t>L3184</t>
+  </si>
+  <si>
+    <t>LD. other fluids</t>
+  </si>
+  <si>
+    <t>L3214</t>
+  </si>
+  <si>
+    <t>LD isoenzyme EP (위탁)</t>
+  </si>
+  <si>
+    <t>L32201</t>
+  </si>
+  <si>
+    <t>LDL Particle Size (위탁)</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>INR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L210203</t>
+  </si>
+  <si>
+    <t>Prothrombin (INR)</t>
+  </si>
+  <si>
+    <t>L700803</t>
+  </si>
+  <si>
+    <t>Prothrombin time(INR)</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1434,6 +1513,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1781,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3B9EC4-9C72-4C4D-B79F-1B7EDD303681}">
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1827,18 +1909,18 @@
         <v>91</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2">
         <v>20220218</v>
@@ -1847,7 +1929,7 @@
         <v>29991231</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>208</v>
@@ -1856,7 +1938,7 @@
         <v>209</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -1867,10 +1949,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" s="2">
         <v>19990101</v>
@@ -1879,7 +1961,7 @@
         <v>29991231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>208</v>
@@ -1899,10 +1981,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C4" s="2">
         <v>20100824</v>
@@ -1911,7 +1993,7 @@
         <v>29991231</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>47</v>
@@ -1920,7 +2002,7 @@
         <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1931,10 +2013,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C5" s="2">
         <v>20100906</v>
@@ -1943,7 +2025,7 @@
         <v>29991231</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>51</v>
@@ -1952,7 +2034,7 @@
         <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1963,10 +2045,10 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2">
         <v>20111017</v>
@@ -1975,7 +2057,7 @@
         <v>29991231</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -1984,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1995,10 +2077,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" s="2">
         <v>20100310</v>
@@ -2007,7 +2089,7 @@
         <v>29991231</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>208</v>
@@ -2025,10 +2107,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" s="2">
         <v>20100310</v>
@@ -2037,7 +2119,7 @@
         <v>29991231</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>208</v>
@@ -2055,10 +2137,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C9" s="2">
         <v>19990101</v>
@@ -2067,7 +2149,7 @@
         <v>29991231</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>47</v>
@@ -2085,10 +2167,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" s="2">
         <v>20100310</v>
@@ -2097,7 +2179,7 @@
         <v>29991231</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>208</v>
@@ -2115,10 +2197,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C11" s="2">
         <v>20100310</v>
@@ -2127,7 +2209,7 @@
         <v>29991231</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>208</v>
@@ -2145,10 +2227,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" s="2">
         <v>20100310</v>
@@ -2157,7 +2239,7 @@
         <v>29991231</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>208</v>
@@ -2175,10 +2257,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" s="2">
         <v>20100310</v>
@@ -2187,7 +2269,7 @@
         <v>29991231</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>208</v>
@@ -2205,10 +2287,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C14" s="2">
         <v>20100310</v>
@@ -2217,7 +2299,7 @@
         <v>29991231</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>208</v>
@@ -2235,10 +2317,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C15" s="2">
         <v>20220207</v>
@@ -2247,7 +2329,7 @@
         <v>29991231</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>208</v>
@@ -2256,7 +2338,7 @@
         <v>209</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -2267,10 +2349,10 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="2">
         <v>19990101</v>
@@ -2279,7 +2361,7 @@
         <v>29991231</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>208</v>
@@ -2288,7 +2370,7 @@
         <v>209</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -2299,10 +2381,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="2">
         <v>20170124</v>
@@ -2311,7 +2393,7 @@
         <v>29991231</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>208</v>
@@ -2320,7 +2402,7 @@
         <v>209</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -2331,10 +2413,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="2">
         <v>20070705</v>
@@ -2343,7 +2425,7 @@
         <v>29991231</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>208</v>
@@ -2352,7 +2434,7 @@
         <v>209</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -2363,10 +2445,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C19" s="2">
         <v>20131003</v>
@@ -2375,7 +2457,7 @@
         <v>29991231</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>95</v>
@@ -2384,7 +2466,7 @@
         <v>96</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2395,10 +2477,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C20" s="2">
         <v>19990101</v>
@@ -2407,7 +2489,7 @@
         <v>29991231</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>95</v>
@@ -2416,7 +2498,7 @@
         <v>96</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -2427,10 +2509,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C21" s="2">
         <v>20090525</v>
@@ -2439,7 +2521,7 @@
         <v>20150831</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>95</v>
@@ -2448,7 +2530,7 @@
         <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2459,10 +2541,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C22" s="2">
         <v>19990101</v>
@@ -2471,7 +2553,7 @@
         <v>20130827</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>95</v>
@@ -2489,10 +2571,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C23" s="2">
         <v>20090525</v>
@@ -2501,7 +2583,7 @@
         <v>20131003</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>95</v>
@@ -2510,7 +2592,7 @@
         <v>96</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -2521,10 +2603,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C24" s="2">
         <v>19000101</v>
@@ -2533,7 +2615,7 @@
         <v>29991231</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>95</v>
@@ -2542,7 +2624,7 @@
         <v>96</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -2553,10 +2635,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C25" s="2">
         <v>20220207</v>
@@ -2565,7 +2647,7 @@
         <v>29991231</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>208</v>
@@ -2574,7 +2656,7 @@
         <v>209</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -2585,10 +2667,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2">
         <v>19990101</v>
@@ -2597,7 +2679,7 @@
         <v>29991231</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>208</v>
@@ -2606,7 +2688,7 @@
         <v>209</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -2617,10 +2699,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2">
         <v>20170124</v>
@@ -2629,7 +2711,7 @@
         <v>29991231</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>208</v>
@@ -2638,7 +2720,7 @@
         <v>209</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -2649,10 +2731,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2">
         <v>20070705</v>
@@ -2661,7 +2743,7 @@
         <v>29991231</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>208</v>
@@ -2670,7 +2752,7 @@
         <v>209</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -2681,10 +2763,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2">
         <v>20220207</v>
@@ -2693,7 +2775,7 @@
         <v>29991231</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>208</v>
@@ -2702,7 +2784,7 @@
         <v>209</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -2713,10 +2795,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2">
         <v>19990101</v>
@@ -2725,7 +2807,7 @@
         <v>29991231</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>208</v>
@@ -2734,7 +2816,7 @@
         <v>209</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
@@ -2745,10 +2827,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2">
         <v>20191116</v>
@@ -2757,7 +2839,7 @@
         <v>29991231</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>95</v>
@@ -2775,10 +2857,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2">
         <v>20220207</v>
@@ -2787,7 +2869,7 @@
         <v>29991231</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>213</v>
@@ -2796,7 +2878,7 @@
         <v>214</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -2807,10 +2889,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2">
         <v>20130930</v>
@@ -2819,7 +2901,7 @@
         <v>29991231</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>213</v>
@@ -2839,10 +2921,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2">
         <v>19990101</v>
@@ -2851,16 +2933,16 @@
         <v>29991231</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -2871,10 +2953,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2">
         <v>20100706</v>
@@ -2883,7 +2965,7 @@
         <v>29991231</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>213</v>
@@ -2892,7 +2974,7 @@
         <v>214</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -2903,10 +2985,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2">
         <v>19990101</v>
@@ -2915,7 +2997,7 @@
         <v>29991231</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>8</v>
@@ -2924,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -2935,10 +3017,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2">
         <v>20100706</v>
@@ -2947,7 +3029,7 @@
         <v>29991231</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>213</v>
@@ -2956,7 +3038,7 @@
         <v>214</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -2967,10 +3049,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="C38" s="2">
         <v>20130930</v>
@@ -2979,7 +3061,7 @@
         <v>29991231</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>213</v>
@@ -2988,7 +3070,7 @@
         <v>214</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -2999,10 +3081,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C39" s="2">
         <v>20231222</v>
@@ -3011,16 +3093,16 @@
         <v>29991231</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
@@ -3031,10 +3113,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2">
         <v>20070102</v>
@@ -3043,7 +3125,7 @@
         <v>29991231</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>208</v>
@@ -3052,7 +3134,7 @@
         <v>209</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
@@ -3063,10 +3145,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="C41" s="2">
         <v>19980101</v>
@@ -3075,7 +3157,7 @@
         <v>29991231</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>208</v>
@@ -3095,10 +3177,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="C42" s="2">
         <v>20220207</v>
@@ -3107,7 +3189,7 @@
         <v>29991231</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>208</v>
@@ -3116,7 +3198,7 @@
         <v>209</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
@@ -3127,10 +3209,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2">
         <v>20201201</v>
@@ -3139,7 +3221,7 @@
         <v>29991231</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>208</v>
@@ -3148,7 +3230,7 @@
         <v>209</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
@@ -3159,10 +3241,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2">
         <v>19990101</v>
@@ -3171,7 +3253,7 @@
         <v>29991231</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>208</v>
@@ -3180,7 +3262,7 @@
         <v>209</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
@@ -3191,10 +3273,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2">
         <v>20220207</v>
@@ -3203,7 +3285,7 @@
         <v>29991231</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>8</v>
@@ -3212,7 +3294,7 @@
         <v>9</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -3223,10 +3305,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2">
         <v>20191116</v>
@@ -3235,7 +3317,7 @@
         <v>29991231</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>95</v>
@@ -3253,10 +3335,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C47" s="2">
         <v>20080609</v>
@@ -3265,7 +3347,7 @@
         <v>29991231</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>213</v>
@@ -3274,7 +3356,7 @@
         <v>214</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I47" s="2">
         <v>1</v>
@@ -3285,10 +3367,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2">
         <v>20220207</v>
@@ -3297,7 +3379,7 @@
         <v>29991231</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>213</v>
@@ -3306,7 +3388,7 @@
         <v>214</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I48" s="2">
         <v>1</v>
@@ -3317,10 +3399,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2">
         <v>19990101</v>
@@ -3329,16 +3411,16 @@
         <v>29991231</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -3349,10 +3431,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C50" s="2">
         <v>20070216</v>
@@ -3361,7 +3443,7 @@
         <v>29991231</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>213</v>
@@ -3370,7 +3452,7 @@
         <v>214</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -3381,10 +3463,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C51" s="2">
         <v>20070216</v>
@@ -3393,7 +3475,7 @@
         <v>29991231</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>213</v>
@@ -3402,7 +3484,7 @@
         <v>214</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
@@ -3413,10 +3495,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C52" s="2">
         <v>20070216</v>
@@ -3425,7 +3507,7 @@
         <v>29991231</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>213</v>
@@ -3434,7 +3516,7 @@
         <v>214</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
@@ -3445,10 +3527,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C53" s="2">
         <v>20070216</v>
@@ -3457,7 +3539,7 @@
         <v>29991231</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>213</v>
@@ -3466,7 +3548,7 @@
         <v>214</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
@@ -3477,10 +3559,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C54" s="2">
         <v>20130930</v>
@@ -3489,7 +3571,7 @@
         <v>29991231</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>213</v>
@@ -3498,7 +3580,7 @@
         <v>214</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
@@ -3509,10 +3591,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C55" s="2">
         <v>20120731</v>
@@ -3521,7 +3603,7 @@
         <v>29991231</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>8</v>
@@ -3530,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
@@ -3541,10 +3623,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C56" s="2">
         <v>20181010</v>
@@ -3553,13 +3635,13 @@
         <v>29991231</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2">
@@ -3571,10 +3653,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C57" s="2">
         <v>20220207</v>
@@ -3583,7 +3665,7 @@
         <v>29991231</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>208</v>
@@ -3592,7 +3674,7 @@
         <v>209</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
@@ -3603,10 +3685,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C58" s="2">
         <v>20220927</v>
@@ -3615,7 +3697,7 @@
         <v>29991231</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>208</v>
@@ -3624,7 +3706,7 @@
         <v>209</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I58" s="2">
         <v>1</v>
@@ -3635,10 +3717,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C59" s="2">
         <v>20220927</v>
@@ -3647,7 +3729,7 @@
         <v>29991231</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>208</v>
@@ -3665,10 +3747,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C60" s="2">
         <v>20151026</v>
@@ -3677,7 +3759,7 @@
         <v>29991231</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>208</v>
@@ -3686,7 +3768,7 @@
         <v>209</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I60" s="2">
         <v>0</v>
@@ -3697,10 +3779,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C61" s="2">
         <v>20050810</v>
@@ -3709,16 +3791,16 @@
         <v>20050810</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
@@ -3729,10 +3811,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C62" s="2">
         <v>20190907</v>
@@ -3741,7 +3823,7 @@
         <v>29991231</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>208</v>
@@ -3750,7 +3832,7 @@
         <v>209</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I62" s="2">
         <v>1</v>
@@ -3761,10 +3843,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C63" s="2">
         <v>20180430</v>
@@ -3773,7 +3855,7 @@
         <v>20210426</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>208</v>
@@ -3782,7 +3864,7 @@
         <v>209</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
@@ -4262,43 +4344,41 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>174</v>
+      <c r="A79" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>152</v>
+        <v>450</v>
       </c>
       <c r="C79" s="2">
-        <v>20090526</v>
+        <v>20201223</v>
       </c>
       <c r="D79" s="2">
         <v>29991231</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>153</v>
+        <v>451</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I79" s="2">
-        <v>1</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="I79" s="2"/>
       <c r="J79" s="3">
-        <v>6154144</v>
+        <v>2630039</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>174</v>
+      <c r="A80" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>452</v>
       </c>
       <c r="C80" s="2">
         <v>19990101</v>
@@ -4307,62 +4387,58 @@
         <v>29991231</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>151</v>
+        <v>453</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="I80" s="2"/>
       <c r="J80" s="3">
-        <v>6153889</v>
+        <v>228234</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>174</v>
+      <c r="A81" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="C81" s="2">
-        <v>19990101</v>
+        <v>20220330</v>
       </c>
       <c r="D81" s="2">
         <v>29991231</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>159</v>
+        <v>431</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I81" s="2">
-        <v>1</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="I81" s="2"/>
       <c r="J81" s="3">
-        <v>30506</v>
+        <v>1855550</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>174</v>
+      <c r="A82" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>160</v>
+        <v>436</v>
       </c>
       <c r="C82" s="2">
         <v>19990101</v>
@@ -4371,7 +4447,7 @@
         <v>29991231</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>161</v>
+        <v>437</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>47</v>
@@ -4380,21 +4456,19 @@
         <v>48</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I82" s="2">
-        <v>1</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="I82" s="2"/>
       <c r="J82" s="3">
-        <v>23585</v>
+        <v>24403</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>174</v>
+      <c r="A83" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>438</v>
       </c>
       <c r="C83" s="2">
         <v>19990101</v>
@@ -4403,62 +4477,58 @@
         <v>29991231</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>165</v>
+        <v>439</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I83" s="2">
-        <v>1</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="I83" s="2"/>
       <c r="J83" s="3">
-        <v>17680</v>
+        <v>14246</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>174</v>
+      <c r="A84" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>162</v>
+        <v>434</v>
       </c>
       <c r="C84" s="2">
-        <v>19990101</v>
+        <v>20220218</v>
       </c>
       <c r="D84" s="2">
         <v>29991231</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>163</v>
+        <v>435</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I84" s="2">
-        <v>1</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="I84" s="2"/>
       <c r="J84" s="3">
-        <v>15295</v>
+        <v>8587</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>174</v>
+      <c r="A85" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>168</v>
+        <v>442</v>
       </c>
       <c r="C85" s="2">
         <v>19990101</v>
@@ -4467,148 +4537,136 @@
         <v>29991231</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>169</v>
+        <v>443</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I85" s="2">
-        <v>1</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="I85" s="2"/>
       <c r="J85" s="3">
-        <v>12488</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>174</v>
+      <c r="A86" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>172</v>
+        <v>444</v>
       </c>
       <c r="C86" s="2">
-        <v>19990101</v>
+        <v>20180711</v>
       </c>
       <c r="D86" s="2">
-        <v>29991231</v>
+        <v>20201007</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>173</v>
+        <v>445</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I86" s="2">
-        <v>1</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
       <c r="J86" s="3">
-        <v>4602</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>174</v>
+      <c r="A87" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>156</v>
+        <v>432</v>
       </c>
       <c r="C87" s="2">
-        <v>19990101</v>
+        <v>20090601</v>
       </c>
       <c r="D87" s="2">
-        <v>29991231</v>
+        <v>20150831</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>157</v>
+        <v>433</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I87" s="2">
-        <v>1</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="I87" s="2"/>
       <c r="J87" s="3">
-        <v>4276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>174</v>
+      <c r="A88" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="C88" s="2">
-        <v>19990101</v>
+        <v>20180711</v>
       </c>
       <c r="D88" s="2">
         <v>29991231</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>171</v>
+        <v>441</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I88" s="2">
-        <v>1</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="I88" s="2"/>
       <c r="J88" s="3">
-        <v>3388</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>174</v>
+      <c r="A89" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>154</v>
+        <v>446</v>
       </c>
       <c r="C89" s="2">
-        <v>20191227</v>
+        <v>20180711</v>
       </c>
       <c r="D89" s="2">
         <v>29991231</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>155</v>
+        <v>447</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="H89" s="2"/>
-      <c r="I89" s="2">
-        <v>0</v>
-      </c>
+      <c r="I89" s="2"/>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -4616,48 +4674,48 @@
         <v>174</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C90" s="2">
-        <v>19990101</v>
+        <v>20090526</v>
       </c>
       <c r="D90" s="2">
         <v>29991231</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" s="3">
-        <v>0</v>
+        <v>6154144</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C91" s="2">
-        <v>20090526</v>
+        <v>19990101</v>
       </c>
       <c r="D91" s="2">
         <v>29991231</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>22</v>
@@ -4666,21 +4724,21 @@
         <v>23</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I91" s="2">
         <v>1</v>
       </c>
       <c r="J91" s="3">
-        <v>6154144</v>
+        <v>6153889</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C92" s="2">
         <v>19990101</v>
@@ -4689,13 +4747,13 @@
         <v>29991231</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>102</v>
@@ -4704,45 +4762,47 @@
         <v>1</v>
       </c>
       <c r="J92" s="3">
-        <v>6151349</v>
+        <v>30506</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C93" s="2">
-        <v>20191227</v>
+        <v>19990101</v>
       </c>
       <c r="D93" s="2">
         <v>29991231</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="3">
-        <v>0</v>
+        <v>23585</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C94" s="2">
         <v>19990101</v>
@@ -4751,62 +4811,62 @@
         <v>29991231</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>102</v>
       </c>
       <c r="I94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C95" s="2">
-        <v>20090526</v>
+        <v>19990101</v>
       </c>
       <c r="D95" s="2">
         <v>29991231</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I95" s="2">
         <v>1</v>
       </c>
       <c r="J95" s="3">
-        <v>6154144</v>
+        <v>15295</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C96" s="2">
         <v>19990101</v>
@@ -4815,7 +4875,7 @@
         <v>29991231</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>43</v>
@@ -4830,15 +4890,15 @@
         <v>1</v>
       </c>
       <c r="J96" s="3">
-        <v>30505</v>
+        <v>12488</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C97" s="2">
         <v>19990101</v>
@@ -4847,7 +4907,7 @@
         <v>29991231</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>47</v>
@@ -4862,15 +4922,15 @@
         <v>1</v>
       </c>
       <c r="J97" s="3">
-        <v>23585</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C98" s="2">
         <v>19990101</v>
@@ -4879,13 +4939,13 @@
         <v>29991231</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>102</v>
@@ -4894,15 +4954,15 @@
         <v>1</v>
       </c>
       <c r="J98" s="3">
-        <v>17680</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C99" s="2">
         <v>19990101</v>
@@ -4911,7 +4971,7 @@
         <v>29991231</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>51</v>
@@ -4926,47 +4986,45 @@
         <v>1</v>
       </c>
       <c r="J99" s="3">
-        <v>15295</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C100" s="2">
-        <v>19990101</v>
+        <v>20191227</v>
       </c>
       <c r="D100" s="2">
         <v>29991231</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H100" s="2"/>
       <c r="I100" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>12488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C101" s="2">
         <v>19990101</v>
@@ -4975,62 +5033,62 @@
         <v>29991231</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="I101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>4602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C102" s="2">
-        <v>19990101</v>
+        <v>20090526</v>
       </c>
       <c r="D102" s="2">
         <v>29991231</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I102" s="2">
         <v>1</v>
       </c>
       <c r="J102" s="3">
-        <v>4276</v>
+        <v>6154144</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C103" s="2">
         <v>19990101</v>
@@ -5039,13 +5097,13 @@
         <v>29991231</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>102</v>
@@ -5054,47 +5112,45 @@
         <v>1</v>
       </c>
       <c r="J103" s="3">
-        <v>3388</v>
+        <v>6151349</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>417</v>
+        <v>179</v>
       </c>
       <c r="C104" s="2">
-        <v>20131003</v>
+        <v>20191227</v>
       </c>
       <c r="D104" s="2">
         <v>29991231</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>413</v>
+        <v>180</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>414</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H104" s="2"/>
       <c r="I104" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" s="3">
-        <v>1242949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>412</v>
+        <v>181</v>
       </c>
       <c r="C105" s="2">
         <v>19990101</v>
@@ -5103,158 +5159,158 @@
         <v>29991231</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="I105" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" s="3">
-        <v>466363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>411</v>
+        <v>184</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C106" s="2">
-        <v>20090522</v>
+        <v>20090526</v>
       </c>
       <c r="D106" s="2">
-        <v>20150831</v>
+        <v>29991231</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>413</v>
+        <v>186</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>414</v>
+        <v>87</v>
       </c>
       <c r="I106" s="2">
         <v>1</v>
       </c>
       <c r="J106" s="3">
-        <v>429231</v>
+        <v>6154144</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>411</v>
+        <v>184</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>418</v>
+        <v>189</v>
       </c>
       <c r="C107" s="2">
-        <v>20090522</v>
+        <v>19990101</v>
       </c>
       <c r="D107" s="2">
-        <v>20131003</v>
+        <v>29991231</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>413</v>
+        <v>190</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="I107" s="2">
         <v>1</v>
       </c>
       <c r="J107" s="3">
-        <v>1287</v>
+        <v>30505</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>411</v>
+        <v>184</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>416</v>
+        <v>191</v>
       </c>
       <c r="C108" s="2">
-        <v>19000101</v>
+        <v>19990101</v>
       </c>
       <c r="D108" s="2">
         <v>29991231</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>413</v>
+        <v>192</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="I108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="3">
-        <v>0</v>
+        <v>23585</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>424</v>
+        <v>195</v>
       </c>
       <c r="C109" s="2">
-        <v>20131003</v>
+        <v>19990101</v>
       </c>
       <c r="D109" s="2">
         <v>29991231</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>421</v>
+        <v>196</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="I109" s="2">
         <v>1</v>
       </c>
       <c r="J109" s="3">
-        <v>1242964</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>420</v>
+        <v>193</v>
       </c>
       <c r="C110" s="2">
         <v>19990101</v>
@@ -5263,336 +5319,350 @@
         <v>29991231</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>421</v>
+        <v>194</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="I110" s="2">
         <v>1</v>
       </c>
       <c r="J110" s="3">
-        <v>466363</v>
+        <v>15295</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>422</v>
+        <v>197</v>
       </c>
       <c r="C111" s="2">
-        <v>20090522</v>
+        <v>19990101</v>
       </c>
       <c r="D111" s="2">
-        <v>20150831</v>
+        <v>29991231</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="I111" s="2">
         <v>1</v>
       </c>
       <c r="J111" s="3">
-        <v>429233</v>
+        <v>12488</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>425</v>
+        <v>201</v>
       </c>
       <c r="C112" s="2">
-        <v>20090522</v>
+        <v>19990101</v>
       </c>
       <c r="D112" s="2">
-        <v>20131003</v>
+        <v>29991231</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>421</v>
+        <v>202</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="I112" s="2">
         <v>1</v>
       </c>
       <c r="J112" s="3">
-        <v>1287</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>423</v>
+        <v>187</v>
       </c>
       <c r="C113" s="2">
-        <v>19000101</v>
+        <v>19990101</v>
       </c>
       <c r="D113" s="2">
         <v>29991231</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>421</v>
+        <v>188</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="I113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" s="3">
-        <v>0</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>379</v>
+        <v>184</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>380</v>
+        <v>199</v>
       </c>
       <c r="C114" s="2">
-        <v>20220107</v>
+        <v>19990101</v>
       </c>
       <c r="D114" s="2">
         <v>29991231</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>379</v>
+        <v>200</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I114" s="2">
         <v>1</v>
       </c>
       <c r="J114" s="3">
-        <v>2154932</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C115" s="2">
-        <v>19990101</v>
+        <v>20131003</v>
       </c>
       <c r="D115" s="2">
         <v>29991231</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I115" s="2">
         <v>1</v>
       </c>
       <c r="J115" s="3">
-        <v>160357</v>
+        <v>1242949</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="C116" s="2">
-        <v>20220107</v>
+        <v>19990101</v>
       </c>
       <c r="D116" s="2">
         <v>29991231</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H116" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I116" s="2">
         <v>1</v>
       </c>
       <c r="J116" s="3">
-        <v>139110</v>
+        <v>466363</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="C117" s="2">
-        <v>19990101</v>
+        <v>20090522</v>
       </c>
       <c r="D117" s="2">
-        <v>29991231</v>
+        <v>20150831</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H117" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I117" s="2">
         <v>1</v>
       </c>
       <c r="J117" s="3">
-        <v>30213</v>
+        <v>429231</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="C118" s="2">
-        <v>19990101</v>
+        <v>20090522</v>
       </c>
       <c r="D118" s="2">
-        <v>29991231</v>
+        <v>20131003</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H118" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I118" s="2">
         <v>1</v>
       </c>
       <c r="J118" s="3">
-        <v>23456</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="C119" s="2">
-        <v>20220215</v>
+        <v>19000101</v>
       </c>
       <c r="D119" s="2">
         <v>29991231</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H119" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I119" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="3">
-        <v>20624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="C120" s="2">
-        <v>19990101</v>
+        <v>20131003</v>
       </c>
       <c r="D120" s="2">
         <v>29991231</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H120" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I120" s="2">
         <v>1</v>
       </c>
       <c r="J120" s="3">
-        <v>15215</v>
+        <v>1242964</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="C121" s="2">
         <v>19990101</v>
@@ -5601,517 +5671,503 @@
         <v>29991231</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H121" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I121" s="2">
         <v>1</v>
       </c>
       <c r="J121" s="3">
-        <v>12716</v>
+        <v>466363</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="C122" s="2">
-        <v>20220215</v>
+        <v>20090522</v>
       </c>
       <c r="D122" s="2">
-        <v>29991231</v>
+        <v>20150831</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H122" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I122" s="2">
         <v>1</v>
       </c>
       <c r="J122" s="3">
-        <v>5477</v>
+        <v>429233</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="C123" s="2">
-        <v>19990101</v>
+        <v>20090522</v>
       </c>
       <c r="D123" s="2">
-        <v>29991231</v>
+        <v>20131003</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H123" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I123" s="2">
         <v>1</v>
       </c>
       <c r="J123" s="3">
-        <v>4262</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C124" s="2">
-        <v>20220927</v>
+        <v>19000101</v>
       </c>
       <c r="D124" s="2">
         <v>29991231</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>402</v>
+        <v>95</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H124" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="I124" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" s="3">
-        <v>1859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C125" s="2">
-        <v>20220215</v>
+        <v>20220107</v>
       </c>
       <c r="D125" s="2">
         <v>29991231</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="3">
-        <v>592</v>
+        <v>2154932</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C126" s="2">
         <v>19990101</v>
       </c>
       <c r="D126" s="2">
-        <v>20160614</v>
+        <v>29991231</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>402</v>
+        <v>8</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>403</v>
+        <v>9</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="3">
-        <v>0</v>
+        <v>160357</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>379</v>
       </c>
       <c r="C127" s="2">
-        <v>20201223</v>
+        <v>20220107</v>
       </c>
       <c r="D127" s="2">
         <v>29991231</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>129</v>
+        <v>380</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H127" s="2"/>
       <c r="I127" s="2">
         <v>1</v>
       </c>
       <c r="J127" s="3">
-        <v>6607080</v>
+        <v>139110</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>149</v>
+        <v>383</v>
       </c>
       <c r="C128" s="2">
-        <v>20080317</v>
+        <v>19990101</v>
       </c>
       <c r="D128" s="2">
         <v>29991231</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>129</v>
+        <v>384</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H128" s="2"/>
       <c r="I128" s="2">
         <v>1</v>
       </c>
       <c r="J128" s="3">
-        <v>719063</v>
+        <v>30213</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="C129" s="2">
-        <v>20201223</v>
+        <v>19990101</v>
       </c>
       <c r="D129" s="2">
         <v>29991231</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H129" s="2"/>
       <c r="I129" s="2">
         <v>1</v>
       </c>
       <c r="J129" s="3">
-        <v>39157</v>
+        <v>23456</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>391</v>
       </c>
       <c r="C130" s="2">
-        <v>20201223</v>
+        <v>20220215</v>
       </c>
       <c r="D130" s="2">
         <v>29991231</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>139</v>
+        <v>392</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H130" s="2"/>
       <c r="I130" s="2">
         <v>1</v>
       </c>
       <c r="J130" s="3">
-        <v>24153</v>
+        <v>20624</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>143</v>
+        <v>387</v>
       </c>
       <c r="C131" s="2">
-        <v>20101230</v>
+        <v>19990101</v>
       </c>
       <c r="D131" s="2">
         <v>29991231</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>144</v>
+        <v>388</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H131" s="2"/>
       <c r="I131" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="3">
-        <v>512</v>
+        <v>15215</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="C132" s="2">
-        <v>20170522</v>
+        <v>19990101</v>
       </c>
       <c r="D132" s="2">
         <v>29991231</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>129</v>
+        <v>390</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H132" s="2"/>
       <c r="I132" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="3">
-        <v>305</v>
+        <v>12716</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>147</v>
+        <v>395</v>
       </c>
       <c r="C133" s="2">
-        <v>20170124</v>
+        <v>20220215</v>
       </c>
       <c r="D133" s="2">
         <v>29991231</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>148</v>
+        <v>396</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H133" s="2"/>
       <c r="I133" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="3">
-        <v>152</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>140</v>
+        <v>381</v>
       </c>
       <c r="C134" s="2">
-        <v>20101230</v>
+        <v>19990101</v>
       </c>
       <c r="D134" s="2">
         <v>29991231</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H134" s="2"/>
       <c r="I134" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" s="3">
-        <v>24</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>109</v>
+        <v>402</v>
       </c>
       <c r="C135" s="2">
-        <v>19990101</v>
+        <v>20220927</v>
       </c>
       <c r="D135" s="2">
         <v>29991231</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>110</v>
+        <v>399</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="H135" s="2"/>
       <c r="I135" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" s="3">
-        <v>0</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>393</v>
       </c>
       <c r="C136" s="2">
-        <v>19990101</v>
+        <v>20220215</v>
       </c>
       <c r="D136" s="2">
         <v>29991231</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H136" s="2"/>
       <c r="I136" s="2">
         <v>0</v>
       </c>
       <c r="J136" s="3">
-        <v>0</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>398</v>
       </c>
       <c r="C137" s="2">
         <v>19990101</v>
       </c>
       <c r="D137" s="2">
-        <v>29991231</v>
+        <v>20160614</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>399</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="H137" s="2"/>
       <c r="I137" s="2">
         <v>0</v>
       </c>
@@ -6124,31 +6180,31 @@
         <v>108</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C138" s="2">
-        <v>19990101</v>
+        <v>20201223</v>
       </c>
       <c r="D138" s="2">
         <v>29991231</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I138" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" s="3">
-        <v>0</v>
+        <v>6607080</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -6156,31 +6212,31 @@
         <v>108</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C139" s="2">
-        <v>19990101</v>
+        <v>20080317</v>
       </c>
       <c r="D139" s="2">
         <v>29991231</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="3">
-        <v>0</v>
+        <v>719063</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -6188,31 +6244,31 @@
         <v>108</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C140" s="2">
-        <v>19990101</v>
+        <v>20201223</v>
       </c>
       <c r="D140" s="2">
         <v>29991231</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="I140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="3">
-        <v>0</v>
+        <v>39157</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -6220,31 +6276,31 @@
         <v>108</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C141" s="2">
-        <v>19990101</v>
+        <v>20201223</v>
       </c>
       <c r="D141" s="2">
         <v>29991231</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="3">
-        <v>0</v>
+        <v>24153</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -6252,29 +6308,31 @@
         <v>108</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C142" s="2">
-        <v>20201223</v>
+        <v>20101230</v>
       </c>
       <c r="D142" s="2">
         <v>29991231</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I142" s="2">
         <v>0</v>
       </c>
       <c r="J142" s="3">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -6282,16 +6340,16 @@
         <v>108</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C143" s="2">
-        <v>20201223</v>
+        <v>20170522</v>
       </c>
       <c r="D143" s="2">
         <v>29991231</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>19</v>
@@ -6300,13 +6358,13 @@
         <v>20</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="I143" s="2">
         <v>0</v>
       </c>
       <c r="J143" s="3">
-        <v>0</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -6314,16 +6372,16 @@
         <v>108</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144" s="2">
-        <v>20070705</v>
+        <v>20170124</v>
       </c>
       <c r="D144" s="2">
         <v>29991231</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>22</v>
@@ -6338,290 +6396,288 @@
         <v>0</v>
       </c>
       <c r="J144" s="3">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2">
-        <v>20220207</v>
+        <v>20101230</v>
       </c>
       <c r="D145" s="2">
         <v>29991231</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="I145" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="3">
-        <v>4878037</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="C146" s="2">
-        <v>20090525</v>
+        <v>19990101</v>
       </c>
       <c r="D146" s="2">
         <v>29991231</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="I146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" s="3">
-        <v>1352554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="C147" s="2">
-        <v>20080304</v>
+        <v>19990101</v>
       </c>
       <c r="D147" s="2">
         <v>29991231</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="I147" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" s="3">
-        <v>1034156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="C148" s="2">
-        <v>20120801</v>
+        <v>19990101</v>
       </c>
       <c r="D148" s="2">
         <v>29991231</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="I148" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" s="3">
-        <v>69403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="C149" s="2">
-        <v>19980101</v>
+        <v>19990101</v>
       </c>
       <c r="D149" s="2">
         <v>29991231</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="I149" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" s="3">
-        <v>44524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="C150" s="2">
-        <v>20220207</v>
+        <v>19990101</v>
       </c>
       <c r="D150" s="2">
         <v>29991231</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="I150" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" s="3">
-        <v>8401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>237</v>
+        <v>121</v>
       </c>
       <c r="C151" s="2">
-        <v>20100706</v>
+        <v>19990101</v>
       </c>
       <c r="D151" s="2">
         <v>29991231</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="I151" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" s="3">
-        <v>1806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="C152" s="2">
-        <v>20130930</v>
+        <v>19990101</v>
       </c>
       <c r="D152" s="2">
         <v>29991231</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="I152" s="2">
         <v>0</v>
       </c>
       <c r="J152" s="3">
-        <v>924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="C153" s="2">
-        <v>20130930</v>
+        <v>20201223</v>
       </c>
       <c r="D153" s="2">
         <v>29991231</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>220</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H153" s="2"/>
       <c r="I153" s="2">
         <v>0</v>
       </c>
@@ -6631,83 +6687,83 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="C154" s="2">
-        <v>20220207</v>
+        <v>20201223</v>
       </c>
       <c r="D154" s="2">
         <v>29991231</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="I154" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" s="3">
-        <v>4868778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="C155" s="2">
-        <v>20090525</v>
+        <v>20070705</v>
       </c>
       <c r="D155" s="2">
         <v>29991231</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="I155" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" s="3">
-        <v>1352541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C156" s="2">
-        <v>20080304</v>
+        <v>20220207</v>
       </c>
       <c r="D156" s="2">
         <v>29991231</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>208</v>
@@ -6722,24 +6778,24 @@
         <v>1</v>
       </c>
       <c r="J156" s="3">
-        <v>1034156</v>
+        <v>4878037</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C157" s="2">
         <v>20090525</v>
       </c>
       <c r="D157" s="2">
-        <v>20150419</v>
+        <v>29991231</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>95</v>
@@ -6754,30 +6810,30 @@
         <v>1</v>
       </c>
       <c r="J157" s="3">
-        <v>304737</v>
+        <v>1352554</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="C158" s="2">
-        <v>20220412</v>
+        <v>20080304</v>
       </c>
       <c r="D158" s="2">
         <v>29991231</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>210</v>
@@ -6786,30 +6842,30 @@
         <v>1</v>
       </c>
       <c r="J158" s="3">
-        <v>79303</v>
+        <v>1034156</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C159" s="2">
-        <v>19980101</v>
+        <v>20120801</v>
       </c>
       <c r="D159" s="2">
         <v>29991231</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>210</v>
@@ -6818,56 +6874,56 @@
         <v>1</v>
       </c>
       <c r="J159" s="3">
-        <v>44524</v>
+        <v>69403</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C160" s="2">
-        <v>20220207</v>
+        <v>19980101</v>
       </c>
       <c r="D160" s="2">
         <v>29991231</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I160" s="2">
         <v>1</v>
       </c>
       <c r="J160" s="3">
-        <v>10336</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C161" s="2">
-        <v>20130930</v>
+        <v>20220207</v>
       </c>
       <c r="D161" s="2">
         <v>29991231</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>213</v>
@@ -6876,30 +6932,30 @@
         <v>214</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I161" s="2">
         <v>1</v>
       </c>
       <c r="J161" s="3">
-        <v>2143</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C162" s="2">
-        <v>20130930</v>
+        <v>20100706</v>
       </c>
       <c r="D162" s="2">
         <v>29991231</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>213</v>
@@ -6911,66 +6967,68 @@
         <v>220</v>
       </c>
       <c r="I162" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" s="3">
-        <v>827</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C163" s="2">
-        <v>19990101</v>
+        <v>20130930</v>
       </c>
       <c r="D163" s="2">
         <v>29991231</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H163" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="I163" s="2">
         <v>0</v>
       </c>
       <c r="J163" s="3">
-        <v>4</v>
+        <v>924</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C164" s="2">
-        <v>19990101</v>
+        <v>20130930</v>
       </c>
       <c r="D164" s="2">
         <v>29991231</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="I164" s="2">
         <v>0</v>
@@ -6981,10 +7039,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="C165" s="2">
         <v>20220207</v>
@@ -6993,7 +7051,7 @@
         <v>29991231</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>208</v>
@@ -7002,62 +7060,62 @@
         <v>209</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="I165" s="2">
         <v>1</v>
       </c>
       <c r="J165" s="3">
-        <v>4686034</v>
+        <v>4868778</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>261</v>
+        <v>427</v>
       </c>
       <c r="C166" s="2">
-        <v>20100809</v>
+        <v>20090525</v>
       </c>
       <c r="D166" s="2">
         <v>29991231</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>263</v>
+        <v>95</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="I166" s="2">
         <v>1</v>
       </c>
       <c r="J166" s="3">
-        <v>8596</v>
+        <v>1352541</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="C167" s="2">
-        <v>20220218</v>
+        <v>20080304</v>
       </c>
       <c r="D167" s="2">
         <v>29991231</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>208</v>
@@ -7066,246 +7124,252 @@
         <v>209</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="I167" s="2">
         <v>1</v>
       </c>
       <c r="J167" s="3">
-        <v>4708545</v>
+        <v>1034156</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="C168" s="2">
-        <v>20140821</v>
+        <v>20090525</v>
       </c>
       <c r="D168" s="2">
-        <v>29991231</v>
+        <v>20150419</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H168" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="I168" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" s="3">
-        <v>0</v>
+        <v>304737</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>360</v>
+        <v>203</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>370</v>
+        <v>216</v>
       </c>
       <c r="C169" s="2">
-        <v>20160517</v>
+        <v>20220412</v>
       </c>
       <c r="D169" s="2">
         <v>29991231</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>371</v>
+        <v>217</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>364</v>
+        <v>9</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>365</v>
+        <v>210</v>
       </c>
       <c r="I169" s="2">
         <v>1</v>
       </c>
       <c r="J169" s="3">
-        <v>148550</v>
+        <v>79303</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>360</v>
+        <v>203</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>372</v>
+        <v>222</v>
       </c>
       <c r="C170" s="2">
-        <v>20070102</v>
+        <v>19980101</v>
       </c>
       <c r="D170" s="2">
         <v>29991231</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>371</v>
+        <v>204</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="I170" s="2">
         <v>1</v>
       </c>
       <c r="J170" s="3">
-        <v>136140</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>360</v>
+        <v>203</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>361</v>
+        <v>218</v>
       </c>
       <c r="C171" s="2">
-        <v>20231221</v>
+        <v>20220207</v>
       </c>
       <c r="D171" s="2">
         <v>29991231</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>364</v>
+        <v>214</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>365</v>
+        <v>220</v>
       </c>
       <c r="I171" s="2">
         <v>1</v>
       </c>
       <c r="J171" s="3">
-        <v>10275</v>
+        <v>10336</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>360</v>
+        <v>203</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>366</v>
+        <v>211</v>
       </c>
       <c r="C172" s="2">
-        <v>20231221</v>
+        <v>20130930</v>
       </c>
       <c r="D172" s="2">
         <v>29991231</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>364</v>
+        <v>214</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>367</v>
+        <v>215</v>
       </c>
       <c r="I172" s="2">
         <v>1</v>
       </c>
       <c r="J172" s="3">
-        <v>10275</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>360</v>
+        <v>203</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>368</v>
+        <v>221</v>
       </c>
       <c r="C173" s="2">
-        <v>19000101</v>
+        <v>20130930</v>
       </c>
       <c r="D173" s="2">
         <v>29991231</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="I173" s="2">
         <v>0</v>
       </c>
       <c r="J173" s="3">
-        <v>0</v>
+        <v>827</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="C174" s="2">
-        <v>20201223</v>
+        <v>19990101</v>
       </c>
       <c r="D174" s="2">
         <v>29991231</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H174" s="2"/>
       <c r="I174" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" s="3">
-        <v>6607079</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="C175" s="2">
-        <v>20220107</v>
+        <v>19990101</v>
       </c>
       <c r="D175" s="2">
         <v>29991231</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>8</v>
@@ -7313,298 +7377,294 @@
       <c r="G175" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H175" s="2"/>
+      <c r="H175" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="I175" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" s="3">
-        <v>2154932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C176" s="2">
-        <v>20190405</v>
+        <v>20220207</v>
       </c>
       <c r="D176" s="2">
         <v>29991231</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="I176" s="2">
         <v>1</v>
       </c>
       <c r="J176" s="3">
-        <v>1360209</v>
+        <v>4686034</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="C177" s="2">
-        <v>19990101</v>
+        <v>20100809</v>
       </c>
       <c r="D177" s="2">
         <v>29991231</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="I177" s="2">
         <v>1</v>
       </c>
       <c r="J177" s="3">
-        <v>734562</v>
+        <v>8596</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="C178" s="2">
-        <v>20080317</v>
+        <v>20220218</v>
       </c>
       <c r="D178" s="2">
         <v>29991231</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="I178" s="2">
         <v>1</v>
       </c>
       <c r="J178" s="3">
-        <v>719063</v>
+        <v>4708545</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="C179" s="2">
-        <v>19990101</v>
+        <v>20140821</v>
       </c>
       <c r="D179" s="2">
         <v>29991231</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" s="3">
-        <v>160357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>71</v>
+        <v>358</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>62</v>
+        <v>368</v>
       </c>
       <c r="C180" s="2">
-        <v>19990101</v>
+        <v>20160517</v>
       </c>
       <c r="D180" s="2">
         <v>29991231</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>8</v>
+        <v>361</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>9</v>
+        <v>362</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="I180" s="2">
         <v>1</v>
       </c>
       <c r="J180" s="3">
-        <v>154632</v>
+        <v>148550</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>71</v>
+        <v>358</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="C181" s="2">
-        <v>19990101</v>
+        <v>20070102</v>
       </c>
       <c r="D181" s="2">
         <v>29991231</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="I181" s="2">
         <v>1</v>
       </c>
       <c r="J181" s="3">
-        <v>30505</v>
+        <v>136140</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>71</v>
+        <v>358</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="C182" s="2">
-        <v>19990101</v>
+        <v>20231221</v>
       </c>
       <c r="D182" s="2">
         <v>29991231</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>46</v>
+        <v>360</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>47</v>
+        <v>361</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>48</v>
+        <v>362</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>88</v>
+        <v>363</v>
       </c>
       <c r="I182" s="2">
         <v>1</v>
       </c>
       <c r="J182" s="3">
-        <v>23584</v>
+        <v>10275</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>71</v>
+        <v>358</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="C183" s="2">
-        <v>19990101</v>
+        <v>20231221</v>
       </c>
       <c r="D183" s="2">
         <v>29991231</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>55</v>
+        <v>361</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>56</v>
+        <v>362</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="I183" s="2">
         <v>1</v>
       </c>
       <c r="J183" s="3">
-        <v>17681</v>
+        <v>10275</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>71</v>
+        <v>358</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>49</v>
+        <v>366</v>
       </c>
       <c r="C184" s="2">
-        <v>19990101</v>
+        <v>19000101</v>
       </c>
       <c r="D184" s="2">
         <v>29991231</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
       <c r="I184" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" s="3">
-        <v>15296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -7612,31 +7672,31 @@
         <v>71</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C185" s="2">
-        <v>19990101</v>
+        <v>20201223</v>
       </c>
       <c r="D185" s="2">
         <v>29991231</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I185" s="2">
         <v>1</v>
       </c>
       <c r="J185" s="3">
-        <v>12488</v>
+        <v>6607079</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -7644,31 +7704,29 @@
         <v>71</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C186" s="2">
-        <v>19990101</v>
+        <v>20220107</v>
       </c>
       <c r="D186" s="2">
         <v>29991231</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H186" s="2"/>
       <c r="I186" s="2">
         <v>1</v>
       </c>
       <c r="J186" s="3">
-        <v>4602</v>
+        <v>2154932</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -7676,31 +7734,31 @@
         <v>71</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C187" s="2">
-        <v>19990101</v>
+        <v>20190405</v>
       </c>
       <c r="D187" s="2">
         <v>29991231</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I187" s="2">
         <v>1</v>
       </c>
       <c r="J187" s="3">
-        <v>4276</v>
+        <v>1360209</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -7708,7 +7766,7 @@
         <v>71</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C188" s="2">
         <v>19990101</v>
@@ -7717,22 +7775,22 @@
         <v>29991231</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I188" s="2">
         <v>1</v>
       </c>
       <c r="J188" s="3">
-        <v>3388</v>
+        <v>734562</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -7740,10 +7798,10 @@
         <v>71</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C189" s="2">
-        <v>20170522</v>
+        <v>20080317</v>
       </c>
       <c r="D189" s="2">
         <v>29991231</v>
@@ -7752,19 +7810,19 @@
         <v>7</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I189" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" s="3">
-        <v>305</v>
+        <v>719063</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -7772,31 +7830,29 @@
         <v>71</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C190" s="2">
-        <v>20170124</v>
+        <v>19990101</v>
       </c>
       <c r="D190" s="2">
         <v>29991231</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H190" s="2"/>
       <c r="I190" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" s="3">
-        <v>152</v>
+        <v>160357</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -7804,7 +7860,7 @@
         <v>71</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C191" s="2">
         <v>19990101</v>
@@ -7813,7 +7869,7 @@
         <v>29991231</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>8</v>
@@ -7821,12 +7877,14 @@
       <c r="G191" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H191" s="2"/>
+      <c r="H191" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I191" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" s="3">
-        <v>103</v>
+        <v>154632</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -7834,7 +7892,7 @@
         <v>71</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C192" s="2">
         <v>19990101</v>
@@ -7843,20 +7901,22 @@
         <v>29991231</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H192" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I192" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" s="3">
-        <v>58</v>
+        <v>30505</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -7864,31 +7924,31 @@
         <v>71</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C193" s="2">
-        <v>20170522</v>
+        <v>19990101</v>
       </c>
       <c r="D193" s="2">
-        <v>20170522</v>
+        <v>29991231</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I193" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" s="3">
-        <v>0</v>
+        <v>23584</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -7896,7 +7956,7 @@
         <v>71</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C194" s="2">
         <v>19990101</v>
@@ -7905,20 +7965,22 @@
         <v>29991231</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H194" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I194" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" s="3">
-        <v>0</v>
+        <v>17681</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -7926,7 +7988,7 @@
         <v>71</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C195" s="2">
         <v>19990101</v>
@@ -7935,20 +7997,22 @@
         <v>29991231</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H195" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I195" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" s="3">
-        <v>0</v>
+        <v>15296</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -7956,7 +8020,7 @@
         <v>71</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C196" s="2">
         <v>19990101</v>
@@ -7965,20 +8029,22 @@
         <v>29991231</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H196" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I196" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" s="3">
-        <v>0</v>
+        <v>12488</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -7986,7 +8052,7 @@
         <v>71</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C197" s="2">
         <v>19990101</v>
@@ -7995,20 +8061,22 @@
         <v>29991231</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H197" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I197" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" s="3">
-        <v>0</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -8016,7 +8084,7 @@
         <v>71</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C198" s="2">
         <v>19990101</v>
@@ -8025,20 +8093,22 @@
         <v>29991231</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H198" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I198" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" s="3">
-        <v>0</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -8046,7 +8116,7 @@
         <v>71</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C199" s="2">
         <v>19990101</v>
@@ -8055,20 +8125,22 @@
         <v>29991231</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H199" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" s="3">
-        <v>0</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -8076,10 +8148,10 @@
         <v>71</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C200" s="2">
-        <v>20070705</v>
+        <v>20170522</v>
       </c>
       <c r="D200" s="2">
         <v>29991231</v>
@@ -8088,10 +8160,10 @@
         <v>7</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>87</v>
@@ -8100,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="J200" s="3">
-        <v>0</v>
+        <v>305</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -8108,31 +8180,31 @@
         <v>71</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C201" s="2">
-        <v>19990101</v>
+        <v>20170124</v>
       </c>
       <c r="D201" s="2">
         <v>29991231</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I201" s="2">
         <v>0</v>
       </c>
       <c r="J201" s="3">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -8140,7 +8212,7 @@
         <v>71</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C202" s="2">
         <v>19990101</v>
@@ -8157,25 +8229,362 @@
       <c r="G202" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H202" s="2" t="s">
+      <c r="H202" s="2"/>
+      <c r="I202" s="2">
+        <v>0</v>
+      </c>
+      <c r="J202" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="2">
+        <v>19990101</v>
+      </c>
+      <c r="D203" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2">
+        <v>0</v>
+      </c>
+      <c r="J203" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="2">
+        <v>20170522</v>
+      </c>
+      <c r="D204" s="2">
+        <v>20170522</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I204" s="2">
+        <v>0</v>
+      </c>
+      <c r="J204" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C205" s="2">
+        <v>19990101</v>
+      </c>
+      <c r="D205" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2">
+        <v>0</v>
+      </c>
+      <c r="J205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="2">
+        <v>19990101</v>
+      </c>
+      <c r="D206" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2">
+        <v>0</v>
+      </c>
+      <c r="J206" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" s="2">
+        <v>19990101</v>
+      </c>
+      <c r="D207" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2">
+        <v>0</v>
+      </c>
+      <c r="J207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" s="2">
+        <v>19990101</v>
+      </c>
+      <c r="D208" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2">
+        <v>0</v>
+      </c>
+      <c r="J208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C209" s="2">
+        <v>19990101</v>
+      </c>
+      <c r="D209" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2">
+        <v>0</v>
+      </c>
+      <c r="J209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C210" s="2">
+        <v>19990101</v>
+      </c>
+      <c r="D210" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2">
+        <v>0</v>
+      </c>
+      <c r="J210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C211" s="2">
+        <v>20070705</v>
+      </c>
+      <c r="D211" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I211" s="2">
+        <v>0</v>
+      </c>
+      <c r="J211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" s="2">
+        <v>19990101</v>
+      </c>
+      <c r="D212" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H212" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I202" s="2">
-        <v>0</v>
-      </c>
-      <c r="J202" s="3">
+      <c r="I212" s="2">
+        <v>0</v>
+      </c>
+      <c r="J212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C213" s="2">
+        <v>19990101</v>
+      </c>
+      <c r="D213" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I213" s="2">
+        <v>0</v>
+      </c>
+      <c r="J213" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J202">
-    <sortCondition ref="A2:A202"/>
-    <sortCondition descending="1" ref="J2:J202"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J213">
+    <sortCondition ref="A2:A213"/>
+    <sortCondition descending="1" ref="J2:J213"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>